--- a/scene_cat_exp_2023.2.2/input_files/1_scenecat_memory_bedrooms_1.xlsx
+++ b/scene_cat_exp_2023.2.2/input_files/1_scenecat_memory_bedrooms_1.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>28</v>
+        <v>204</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>36</v>
+        <v>212</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>37</v>
+        <v>213</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>38</v>
+        <v>214</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>46</v>
+        <v>222</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>47</v>
+        <v>223</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>48</v>
+        <v>224</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>49</v>
+        <v>225</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>50</v>
+        <v>226</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>51</v>
+        <v>227</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>52</v>
+        <v>228</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>53</v>
+        <v>229</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>54</v>
+        <v>230</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>29</v>
       </c>
       <c r="F30">
-        <v>55</v>
+        <v>231</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>30</v>
       </c>
       <c r="F31">
-        <v>56</v>
+        <v>232</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>31</v>
       </c>
       <c r="F32">
-        <v>57</v>
+        <v>233</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>32</v>
       </c>
       <c r="F33">
-        <v>58</v>
+        <v>234</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>33</v>
       </c>
       <c r="F34">
-        <v>59</v>
+        <v>235</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>34</v>
       </c>
       <c r="F35">
-        <v>60</v>
+        <v>236</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         <v>35</v>
       </c>
       <c r="F36">
-        <v>61</v>
+        <v>237</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>62</v>
+        <v>238</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>37</v>
       </c>
       <c r="F38">
-        <v>63</v>
+        <v>239</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>38</v>
       </c>
       <c r="F39">
-        <v>64</v>
+        <v>240</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>65</v>
+        <v>241</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>66</v>
+        <v>242</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>41</v>
       </c>
       <c r="F42">
-        <v>67</v>
+        <v>243</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>

--- a/scene_cat_exp_2023.2.2/input_files/1_scenecat_memory_bedrooms_1.xlsx
+++ b/scene_cat_exp_2023.2.2/input_files/1_scenecat_memory_bedrooms_1.xlsx
@@ -1451,7 +1451,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/catch_01_supermarket.jpg</t>
+          <t>stimuli/catch_02.jpg</t>
         </is>
       </c>
     </row>
